--- a/Data/Processed/Angiosperms/missing_powo_ipni/Plantaginaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Plantaginaceae.xlsx
@@ -6262,7 +6262,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
